--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F68A41-BE23-4CEB-B3AF-8150255BB8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EE3288-1874-43D0-A0F8-BEE638630A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="1185" yWindow="975" windowWidth="22200" windowHeight="14535" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -71,9 +71,6 @@
     <t>SPY (Benchmark)</t>
   </si>
   <si>
-    <t>Update:</t>
-  </si>
-  <si>
     <t>ATYR</t>
   </si>
   <si>
@@ -177,6 +174,30 @@
   </si>
   <si>
     <t>AVOID</t>
+  </si>
+  <si>
+    <t>OKLO</t>
+  </si>
+  <si>
+    <t>QBTS</t>
+  </si>
+  <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>JOBY</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>Crypto/Fake</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
   </si>
 </sst>
 </file>
@@ -597,13 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -616,87 +637,83 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45894</v>
-      </c>
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
       <c r="V1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>45862</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>4.1399999999999997</v>
@@ -712,7 +729,7 @@
         <v>0.39855072463768104</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -729,13 +746,13 @@
         <v>24.245169082125599</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2">
         <v>634.41999999999996</v>
@@ -753,7 +770,7 @@
         <v>45868</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>2.4900000000000002</v>
@@ -775,7 +792,7 @@
         <v>45887</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>21.81</v>
@@ -796,10 +813,10 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="2">
@@ -821,7 +838,7 @@
         <v>45887</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>9.94</v>
@@ -842,10 +859,10 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="2">
@@ -855,7 +872,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V6" s="6">
-        <f>(F6*K6)/MIN(F6:F12)</f>
+        <f>(F6*K6)/MIN(F6:F16)</f>
         <v>0</v>
       </c>
     </row>
@@ -867,7 +884,7 @@
         <v>45887</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>69.23</v>
@@ -888,10 +905,10 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="2">
@@ -901,19 +918,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V7" s="6">
-        <f>(F7*K7)/MIN(F7:F16)</f>
+        <f>(F7*K7)/MIN(F7:F22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>45894</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>5.3</v>
@@ -934,10 +951,10 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="2">
@@ -947,19 +964,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V8" s="6">
-        <f>(F8*K8)/MIN(F8:F13)</f>
+        <f>(F8*K8)/MIN(F8:F19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>45894</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>77</v>
@@ -980,10 +997,10 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="2">
@@ -993,25 +1010,25 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V9" s="6">
-        <f>(F9*K9)/MIN(F9:F14)</f>
+        <f>(F9*K9)/MIN(F9:F20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>45894</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>26</v>
       </c>
       <c r="G10" s="2">
-        <v>26</v>
+        <v>24.8</v>
       </c>
       <c r="H10" s="3"/>
       <c r="K10" s="6"/>
@@ -1020,10 +1037,10 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="2">
@@ -1033,19 +1050,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V10" s="6">
-        <f>(F10*K10)/MIN(F10:F15)</f>
+        <f>(F10*K10)/MIN(F10:F21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>45894</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>46</v>
@@ -1066,10 +1083,10 @@
       </c>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="2">
@@ -1079,167 +1096,291 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V11" s="6">
-        <f>(F11*K11)/MIN(F11:F18)</f>
+        <f>(F11*K11)/MIN(F11:F24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="3">
-        <f>SUM(J3:J11)/COUNT(J3:J11)</f>
-        <v>1</v>
-      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="3"/>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="2">
+        <v>647</v>
+      </c>
+      <c r="R12" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="3"/>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="M14" s="3"/>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="M15" s="3"/>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3">
+        <f>SUM(J3:J16)/COUNT(J3:J16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2">
         <f>AVERAGE(F3:F11)</f>
         <v>4.1428571428571432</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H19" s="3">
         <f>AVERAGE(H3:H11)</f>
         <v>5.5809325727504348E-2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K19" s="6">
         <f>AVERAGE(K3:K11)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L19" s="2">
         <f>AVERAGE(L3:L11)</f>
         <v>1.0675000000000001</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M19" s="3">
         <f>AVERAGE(M3:M11)</f>
         <v>24.245169082125599</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V19" s="6">
         <f>AVERAGE(V3:V11)</f>
         <v>4.9806703509630366E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C21" s="1">
         <v>45887</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E21" s="2">
         <v>643.44000000000005</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G21" s="2">
         <v>645.30999999999995</v>
       </c>
-      <c r="H15" s="3">
-        <f>G15/E15-1</f>
+      <c r="H21" s="3">
+        <f>G21/E21-1</f>
         <v>2.906253885365917E-3</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="K15" s="6">
-        <f>H15-($H$16+L15*($H$15-$H$16))</f>
+      <c r="I21" s="3"/>
+      <c r="K21" s="6">
+        <f>H21-($H$22+L21*($H$21-$H$22))</f>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L21">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="H16" s="6">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="H22" s="6">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="K16" s="6">
-        <f>H16-($H$16+L16*($H$15-$H$16))</f>
+      <c r="I22" s="3"/>
+      <c r="K22" s="6">
+        <f>H22-($H$22+L22*($H$21-$H$22))</f>
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L22">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="3">
         <f>SUM(J3,J5,J6,J8,J9,J10)/COUNT(J3,J5,J6,J8,J9,J10)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K24" s="6">
         <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L24" s="2">
         <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
         <v>1.0316666666666667</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M24" s="3">
         <f>AVERAGE(M3,M5,M6,M8,M9,M10)</f>
         <v>24.245169082125599</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" t="e">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="e">
         <f>SUM(J7)/COUNT(J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="6" t="e">
+      <c r="K25" s="6" t="e">
         <f>AVERAGE(K7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L25" s="2">
         <f>AVERAGE(L7)</f>
         <v>1.44</v>
       </c>
-      <c r="M19" s="3" t="e">
+      <c r="M25" s="3" t="e">
         <f>AVERAGE(M7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" t="e">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" t="e">
         <f>SUM(J11)/COUNT(J11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="6" t="e">
+      <c r="K26" s="6" t="e">
         <f>AVERAGE(K11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L26" s="2">
         <f>AVERAGE(L11)</f>
         <v>0.91</v>
       </c>
-      <c r="M20" s="3" t="e">
+      <c r="M26" s="3" t="e">
         <f>AVERAGE(M11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K22" s="6"/>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1252,9 +1393,11 @@
     <hyperlink ref="O9" r:id="rId7" xr:uid="{1954C073-6EE4-438F-929C-C507A342B480}"/>
     <hyperlink ref="O11" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
     <hyperlink ref="O10" r:id="rId9" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
+    <hyperlink ref="O12" r:id="rId10" xr:uid="{A047975B-CA68-4AA6-A365-A332455D0250}"/>
+    <hyperlink ref="O15" r:id="rId11" xr:uid="{E1AFF3FB-1C65-4169-8AC3-97DCAA64B9AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EE3288-1874-43D0-A0F8-BEE638630A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A57CBF-D022-42D3-9C48-63AA8CACE98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="975" windowWidth="22200" windowHeight="14535" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="2985" yWindow="1995" windowWidth="22200" windowHeight="14205" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -152,9 +152,6 @@
     <t>CLOSE</t>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
     <t>IRR</t>
   </si>
   <si>
@@ -198,6 +195,42 @@
   </si>
   <si>
     <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Closed after final clinical trial results released. The data from new patients added was about as bad as it could be but the company proceeded with a phase 3 so the stock didn't completely collapsed. The phase 3 is likely to fail but I recommended closing the position due to limited upside and long time it will take for the phase 3 results to be released and collapse the stock price.</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Very stable cheap stock with a significant amount of PP&amp;E even subtracting debt the PP&amp;E is worth more than the market cap. This buisness virtually has no threat and easy to run so assuming any positive return on PP&amp;E the stock is cheap.</t>
+  </si>
+  <si>
+    <t>Stock collapsed in the past year due to regulatory scrutiny requesting voluntary halt of shipments of a treatment for DMD. The FDA regulator responsible for this scrutiny was fired and now there isn't much risk to their drug 'Elevidys'. Many of the deaths which collapsed the stock have also been assumed as non-treatment related and were reported to the FDA before they were publically announced. The companies other drugs the "PMOs" are even worth more than the market cap and adding 'Elevidys' the stock can easily double. It seems that distrust in management or the many FDA scares collapsed the stock but the fundamental buisness is unchanged from a year ago except maybe non-ambulatory patients for Elevidys which only makes up less than 20% of the treatment population.</t>
+  </si>
+  <si>
+    <t>Very weak data and only submission for EMA approval and not FDA. Many people including Jesse Brodkin have wrote a lot about the problems with the recent phase 3 trial for their main drug they are trying to get approval for and these questions remain unanswered by the company. I don't see this ever getting approved by the FDA or EMA with the current data from the clinical trials and the company is likely doing this tactic for time to raise capital for a new drug before it gets denied.</t>
+  </si>
+  <si>
+    <t>Cheap stock w/ strong cash-flow and a good competitive moat not as strong as a company as OXY but for a tech company it is decently strong.</t>
+  </si>
+  <si>
+    <t>Leveraged bitcoin holding company w/ stock over 2x NAV. The way they leverage is mainly converts either their BTC holdings need to more than double or they need to issue way more converts AND BTC needs to rise otherwise the stock collapes and if a downturn happens it has very significant downside. With the excess 40B of value not being accounted for in NAV it seems unlikely they will be able to get many more investment banks buying converts the market is just not that big. However I would rather avoid than short this stock due to the random nature of the underlying crypto that this is based on and irrational market around this sort of thing.</t>
+  </si>
+  <si>
+    <t>Very weak/basically completely failed clinical trials and this upcoming data release is likely to prove the drug doesn’t work and the stock will collapse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite management's claims of superior to classical computing performance any research on quantum shows that this technology is very early and will take a long time to develop. The stock is at a very high price following recent AI rallys as investors hope that this "quantum" will be a necessary speedup for data centers. </t>
+  </si>
+  <si>
+    <t>Lots of problems w/ the type of reactor this company is developing and misleading statements made by management. The stock is trading at ~11B way overvalued for a company that has a lot of regulatory scrutiny over their reactor design which was denied and isn't likely to be approved for years. The margins and use cases of this reactor seem a lot smaller than what the market is implying. It seems that this stock went so high due to management claims that this will "solve the energy problem" in AI datacenters. This claim however has many flaws and its likely the stock collapses. Also, their current buisness model they say they want to execute (owning of reactors and selling energy) requires a lot of capital and would have to take a lot of debt or dilute shareholders.</t>
+  </si>
+  <si>
+    <t>eVTOL company which wants to be like Uber however they still don't have regulatory approval and even when they do there is likely a lot of restrictions for cities (the majority of the TAM) and they have to follow regulations for planes and need licensed pilots currently which would be very expensive and the price of the stock is implying a lot more market than what is likely.</t>
+  </si>
+  <si>
+    <t>The China data for their main drug in the pipeline was very strong but the problem is the FDA has historically almost never approved a drug based on China data and it may not be reliable so further studies in the USA are needed and are being conducted the market is fairly priced in for a decent chance of success but the recent USA interim data isn't very bullish and at this price I wouldn't recommend a position in either direction it is just hard to tell what the data could show. Also, with Keytruda's patent expiry in 2028 this drugs pricing if not significantly better in PFS and OS will be severely limited. I wouldn't short this stock but I see long being pretty risky and would rather avoid this stock.</t>
   </si>
 </sst>
 </file>
@@ -618,13 +651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
         <v>24</v>
@@ -728,9 +761,6 @@
         <f>(E4/E3-1)*-1</f>
         <v>0.39855072463768104</v>
       </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -749,10 +779,10 @@
         <v>28</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2">
         <v>634.41999999999996</v>
@@ -776,6 +806,12 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -801,11 +837,17 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>20.36</v>
+        <v>18.2</v>
       </c>
       <c r="H5" s="3">
         <f>G5/E5-1</f>
-        <v>-6.6483264557542388E-2</v>
+        <v>-0.16552040348464003</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5">
@@ -816,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="2">
@@ -847,14 +889,20 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>9.51</v>
+        <v>9.64</v>
       </c>
       <c r="H6" s="3">
         <f>(G6/E6-1)*-1</f>
-        <v>4.3259557344064392E-2</v>
+        <v>3.0181086519114553E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0.8</v>
       </c>
       <c r="M6" s="3"/>
@@ -862,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="2">
@@ -893,11 +941,17 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>69.900000000000006</v>
+        <v>70.19</v>
       </c>
       <c r="H7" s="3">
         <f>G7/E7-1</f>
-        <v>9.677885309836709E-3</v>
+        <v>1.3866820742452601E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7">
@@ -908,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="2">
@@ -918,7 +972,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V7" s="6">
-        <f>(F7*K7)/MIN(F7:F22)</f>
+        <f>(F7*K7)/MIN(F7:F25)</f>
         <v>0</v>
       </c>
     </row>
@@ -939,11 +993,17 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="H8" s="3">
         <f>G8/E8-1</f>
-        <v>5.6603773584906758E-3</v>
+        <v>1.5094339622641506E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8">
@@ -954,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="2">
@@ -985,11 +1045,11 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>77</v>
+        <v>80.53</v>
       </c>
       <c r="H9" s="3">
         <f>G9/E9-1</f>
-        <v>0</v>
+        <v>4.5844155844155798E-2</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9">
@@ -1000,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="2">
@@ -1022,15 +1082,21 @@
         <v>45894</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
         <v>26</v>
       </c>
       <c r="G10" s="2">
-        <v>24.8</v>
+        <v>23.7</v>
       </c>
       <c r="H10" s="3"/>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10">
         <v>0.86</v>
@@ -1040,7 +1106,7 @@
         <v>28</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="2">
@@ -1050,7 +1116,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V10" s="6">
-        <f>(F10*K10)/MIN(F10:F21)</f>
+        <f>(F10*K10)/MIN(F10:F24)</f>
         <v>0</v>
       </c>
     </row>
@@ -1071,11 +1137,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>46</v>
+        <v>47.61</v>
       </c>
       <c r="H11" s="3">
         <f>G11/E11-1</f>
-        <v>0</v>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11">
@@ -1086,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="2">
@@ -1096,13 +1168,13 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V11" s="6">
-        <f>(F11*K11)/MIN(F11:F24)</f>
+        <f>(F11*K11)/MIN(F11:F27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>45897</v>
@@ -1113,15 +1185,27 @@
       <c r="E12" s="2">
         <v>73</v>
       </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
       <c r="K12" s="6"/>
+      <c r="L12">
+        <v>0.62</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
         <v>30</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="2">
@@ -1134,7 +1218,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>45897</v>
@@ -1142,23 +1226,41 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>15.92</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
       <c r="K13" s="6"/>
+      <c r="L13" s="2">
+        <v>1.4</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="2">
+        <v>647</v>
+      </c>
+      <c r="R13" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>45897</v>
@@ -1166,23 +1268,35 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="K14" s="6"/>
+      <c r="L14">
+        <v>2.54</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="2">
+        <v>647</v>
+      </c>
+      <c r="R14" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1">
         <v>45897</v>
@@ -1190,34 +1304,73 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>14.27</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
       <c r="K15" s="6"/>
+      <c r="L15">
+        <v>2.52</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="2">
+        <v>647</v>
+      </c>
+      <c r="R15" s="6">
+        <v>4.2299999999999997E-2</v>
+      </c>
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
         <v>45897</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="2">
+        <v>338.84</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16">
+        <v>3.78</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>647</v>
+      </c>
+      <c r="R16" s="6">
+        <v>4.2299999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
@@ -1238,12 +1391,12 @@
         <v>26</v>
       </c>
       <c r="F19" s="2">
-        <f>AVERAGE(F3:F11)</f>
-        <v>4.1428571428571432</v>
+        <f>AVERAGE(F3:F16)</f>
+        <v>3.9166666666666665</v>
       </c>
       <c r="H19" s="3">
         <f>AVERAGE(H3:H11)</f>
-        <v>5.5809325727504348E-2</v>
+        <v>5.3288103411629338E-2</v>
       </c>
       <c r="K19" s="6">
         <f>AVERAGE(K3:K11)</f>
@@ -1269,118 +1422,189 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45887</v>
-      </c>
-      <c r="E21" s="2">
-        <v>643.44000000000005</v>
-      </c>
-      <c r="G21" s="2">
-        <v>645.30999999999995</v>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(D3:D16,"SHORT")</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21/$D$23</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F21" s="2">
+        <f>AVERAGE(F12:F16,F8,F6,F3)</f>
+        <v>3.875</v>
       </c>
       <c r="H21" s="3">
-        <f>G21/E21-1</f>
-        <v>2.906253885365917E-3</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="K21" s="6">
-        <f>H21-($H$22+L21*($H$21-$H$22))</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
+        <f>AVERAGE(H12:H16,H8,H6,H3)</f>
+        <v>0.14794205025981236</v>
+      </c>
+      <c r="J21" s="3">
+        <f>SUM(J12:J16,J8,J6,J3)/COUNT(J12:J16,J8,J6,J3)</f>
         <v>1</v>
       </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2">
+        <f>AVERAGE(L12:L16,L8,L6,L3)</f>
+        <v>1.7687499999999998</v>
+      </c>
+      <c r="V21" s="6"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="H22" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="K22" s="6">
-        <f>H22-($H$22+L22*($H$21-$H$22))</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(D3:D16,"LONG")</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22/$D$23</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F22" s="2">
+        <f>AVERAGE(F11,F9,F7,F5)</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <f>AVERAGE(H11,H9,H7,H5)</f>
+        <v>-1.7702356724507928E-2</v>
+      </c>
+      <c r="J22" t="e">
+        <f>SUM(J11,J9,J7,J5)/COUNT(J11,J9,J7,J5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <f>AVERAGE(L11,L9,L7,L5)</f>
+        <v>1.0975000000000001</v>
+      </c>
+      <c r="V22" s="6"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
+      <c r="D23">
+        <f>SUM(D21:D22)</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45862</v>
+      </c>
+      <c r="E24" s="2">
+        <v>634.41999999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <v>645.04999999999995</v>
+      </c>
+      <c r="H24" s="3">
+        <f>G24/E24-1</f>
+        <v>1.6755461681535966E-2</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="K24" s="6">
+        <f>H24-($H$25+L24*($H$24-$H$25))</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="H25" s="6">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="K25" s="6">
+        <f>H25-($H$25+L25*($H$24-$H$25))</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J27" s="3">
         <f>SUM(J3,J5,J6,J8,J9,J10)/COUNT(J3,J5,J6,J8,J9,J10)</f>
         <v>1</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K27" s="6">
         <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
         <v>0.39845362807704293</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L27" s="2">
         <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
         <v>1.0316666666666667</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M27" s="3">
         <f>AVERAGE(M3,M5,M6,M8,M9,M10)</f>
         <v>24.245169082125599</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="J25" t="e">
+      <c r="J28" t="e">
         <f>SUM(J7)/COUNT(J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="6" t="e">
+      <c r="K28" s="6" t="e">
         <f>AVERAGE(K7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L28" s="2">
         <f>AVERAGE(L7)</f>
         <v>1.44</v>
       </c>
-      <c r="M25" s="3" t="e">
+      <c r="M28" s="3" t="e">
         <f>AVERAGE(M7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" t="e">
+      <c r="I29" s="3"/>
+      <c r="J29" t="e">
         <f>SUM(J11)/COUNT(J11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="6" t="e">
+      <c r="K29" s="6" t="e">
         <f>AVERAGE(K11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L29" s="2">
         <f>AVERAGE(L11)</f>
         <v>0.91</v>
       </c>
-      <c r="M26" s="3" t="e">
+      <c r="M29" s="3" t="e">
         <f>AVERAGE(M11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="K28" s="6"/>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A57CBF-D022-42D3-9C48-63AA8CACE98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B9DC7B-6A90-4D06-BDE8-CAC0FCC34F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1995" windowWidth="22200" windowHeight="14205" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
+    <workbookView xWindow="1665" yWindow="1005" windowWidth="22200" windowHeight="14310" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -176,21 +176,12 @@
     <t>OKLO</t>
   </si>
   <si>
-    <t>QBTS</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
     <t>JOBY</t>
   </si>
   <si>
     <t>MSTR</t>
   </si>
   <si>
-    <t>Quantum</t>
-  </si>
-  <si>
     <t>Crypto/Fake</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
     <t>Very weak/basically completely failed clinical trials and this upcoming data release is likely to prove the drug doesn’t work and the stock will collapse.</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite management's claims of superior to classical computing performance any research on quantum shows that this technology is very early and will take a long time to develop. The stock is at a very high price following recent AI rallys as investors hope that this "quantum" will be a necessary speedup for data centers. </t>
-  </si>
-  <si>
     <t>Lots of problems w/ the type of reactor this company is developing and misleading statements made by management. The stock is trading at ~11B way overvalued for a company that has a lot of regulatory scrutiny over their reactor design which was denied and isn't likely to be approved for years. The margins and use cases of this reactor seem a lot smaller than what the market is implying. It seems that this stock went so high due to management claims that this will "solve the energy problem" in AI datacenters. This claim however has many flaws and its likely the stock collapses. Also, their current buisness model they say they want to execute (owning of reactors and selling energy) requires a lot of capital and would have to take a lot of debt or dilute shareholders.</t>
   </si>
   <si>
@@ -231,6 +219,12 @@
   </si>
   <si>
     <t>The China data for their main drug in the pipeline was very strong but the problem is the FDA has historically almost never approved a drug based on China data and it may not be reliable so further studies in the USA are needed and are being conducted the market is fairly priced in for a decent chance of success but the recent USA interim data isn't very bullish and at this price I wouldn't recommend a position in either direction it is just hard to tell what the data could show. Also, with Keytruda's patent expiry in 2028 this drugs pricing if not significantly better in PFS and OS will be severely limited. I wouldn't short this stock but I see long being pretty risky and would rather avoid this stock.</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>New Phase III data from Sep 7th with America data (not just china) was good and the stock is trading at ~30% lower than before</t>
   </si>
 </sst>
 </file>
@@ -654,10 +648,10 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,7 +785,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V3" s="6">
-        <f>(F3*K3)/MIN(F3:F11)</f>
+        <f>(F3*K3)/MIN(F3:F12)</f>
         <v>0.39845362807704293</v>
       </c>
     </row>
@@ -807,10 +801,10 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4" s="6"/>
       <c r="O4" s="7"/>
@@ -844,10 +838,10 @@
         <v>-0.16552040348464003</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5">
@@ -868,7 +862,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V5" s="6">
-        <f>(F5*K5)/MIN(F5:F11)</f>
+        <f>(F5*K5)/MIN(F5:F12)</f>
         <v>0</v>
       </c>
     </row>
@@ -896,10 +890,10 @@
         <v>3.0181086519114553E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="2">
@@ -920,7 +914,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="V6" s="6">
-        <f>(F6*K6)/MIN(F6:F16)</f>
+        <f>(F6*K6)/MIN(F6:F15)</f>
         <v>0</v>
       </c>
     </row>
@@ -948,10 +942,10 @@
         <v>1.3866820742452601E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7">
@@ -1000,10 +994,10 @@
         <v>1.5094339622641506E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8">
@@ -1088,14 +1082,14 @@
         <v>26</v>
       </c>
       <c r="G10" s="2">
-        <v>23.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10">
@@ -1121,84 +1115,60 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
       <c r="C11" s="1">
-        <v>45894</v>
+        <v>45911</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>47.61</v>
-      </c>
-      <c r="H11" s="3">
-        <f>G11/E11-1</f>
-        <v>3.499999999999992E-2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="K11" s="6"/>
-      <c r="L11">
-        <v>0.91</v>
-      </c>
       <c r="M11" s="3"/>
-      <c r="N11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="O11" s="9"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="2">
-        <v>642.47</v>
-      </c>
-      <c r="R11" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="V11" s="6">
-        <f>(F11*K11)/MIN(F11:F27)</f>
-        <v>0</v>
-      </c>
+        <v>657.63</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>45897</v>
+        <v>45894</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>47.61</v>
+      </c>
+      <c r="H12" s="3">
+        <f>G12/E12-1</f>
+        <v>3.499999999999992E-2</v>
+      </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
@@ -1209,16 +1179,19 @@
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="2">
-        <v>647</v>
+        <v>642.47</v>
       </c>
       <c r="R12" s="6">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="V12" s="6"/>
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V12" s="6">
+        <f>(F12*K12)/MIN(F12:F27)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>45897</v>
@@ -1227,28 +1200,30 @@
         <v>18</v>
       </c>
       <c r="E13" s="2">
-        <v>15.92</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="2">
-        <v>1.4</v>
+      <c r="L13">
+        <v>0.62</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="2">
         <v>647</v>
@@ -1260,7 +1235,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>45897</v>
@@ -1269,22 +1244,30 @@
         <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>43.3</v>
+        <v>14.27</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="2">
         <v>647</v>
@@ -1296,81 +1279,72 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <v>45897</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
-        <v>14.27</v>
+        <v>338.84</v>
       </c>
       <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+        <v>4</v>
+      </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="6"/>
+        <v>45</v>
+      </c>
       <c r="L15">
-        <v>2.52</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>3.78</v>
+      </c>
       <c r="N15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="10"/>
+        <v>42</v>
+      </c>
       <c r="Q15" s="2">
         <v>647</v>
       </c>
       <c r="R15" s="6">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2">
-        <v>338.84</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L16">
-        <v>3.78</v>
+        <v>0.87</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="Q16" s="2">
-        <v>647</v>
+        <v>657.63</v>
       </c>
       <c r="R16" s="6">
-        <v>4.2299999999999997E-2</v>
+        <v>4.0340000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
@@ -1378,7 +1352,7 @@
         <v>22</v>
       </c>
       <c r="J17" s="3">
-        <f>SUM(J3:J16)/COUNT(J3:J16)</f>
+        <f>SUM(J3:J15)/COUNT(J3:J15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1391,27 +1365,27 @@
         <v>26</v>
       </c>
       <c r="F19" s="2">
-        <f>AVERAGE(F3:F16)</f>
-        <v>3.9166666666666665</v>
+        <f>AVERAGE(F3:F15)</f>
+        <v>3.9</v>
       </c>
       <c r="H19" s="3">
-        <f>AVERAGE(H3:H11)</f>
+        <f>AVERAGE(H3:H12)</f>
         <v>5.3288103411629338E-2</v>
       </c>
       <c r="K19" s="6">
-        <f>AVERAGE(K3:K11)</f>
+        <f>AVERAGE(K3:K12)</f>
         <v>0.39845362807704293</v>
       </c>
       <c r="L19" s="2">
-        <f>AVERAGE(L3:L11)</f>
+        <f>AVERAGE(L3:L12)</f>
         <v>1.0675000000000001</v>
       </c>
       <c r="M19" s="3">
-        <f>AVERAGE(M3:M11)</f>
+        <f>AVERAGE(M3:M12)</f>
         <v>24.245169082125599</v>
       </c>
       <c r="V19" s="6">
-        <f>AVERAGE(V3:V11)</f>
+        <f>AVERAGE(V3:V12)</f>
         <v>4.9806703509630366E-2</v>
       </c>
     </row>
@@ -1425,29 +1399,29 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <f>COUNTIF(D3:D16,"SHORT")</f>
-        <v>7</v>
+        <f>COUNTIF(D3:D15,"SHORT")</f>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <f>D21/$D$23</f>
-        <v>0.63636363636363635</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F21" s="2">
-        <f>AVERAGE(F12:F16,F8,F6,F3)</f>
-        <v>3.875</v>
+        <f>AVERAGE(F13:F15,F8,F6,F3)</f>
+        <v>3.8333333333333335</v>
       </c>
       <c r="H21" s="3">
-        <f>AVERAGE(H12:H16,H8,H6,H3)</f>
+        <f>AVERAGE(H13:H15,H8,H6,H3)</f>
         <v>0.14794205025981236</v>
       </c>
       <c r="J21" s="3">
-        <f>SUM(J12:J16,J8,J6,J3)/COUNT(J12:J16,J8,J6,J3)</f>
+        <f>SUM(J13:J15,J8,J6,J3)/COUNT(J13:J15,J8,J6,J3)</f>
         <v>1</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="2">
-        <f>AVERAGE(L12:L16,L8,L6,L3)</f>
-        <v>1.7687499999999998</v>
+        <f>AVERAGE(L13:L15,L8,L6,L3)</f>
+        <v>1.7016666666666669</v>
       </c>
       <c r="V21" s="6"/>
     </row>
@@ -1456,28 +1430,28 @@
         <v>17</v>
       </c>
       <c r="D22">
-        <f>COUNTIF(D3:D16,"LONG")</f>
+        <f>COUNTIF(D3:D15,"LONG")</f>
         <v>4</v>
       </c>
       <c r="E22" s="3">
         <f>D22/$D$23</f>
-        <v>0.36363636363636365</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F22" s="2">
-        <f>AVERAGE(F11,F9,F7,F5)</f>
+        <f>AVERAGE(F12,F9,F7,F5)</f>
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <f>AVERAGE(H11,H9,H7,H5)</f>
+        <f>AVERAGE(H12,H9,H7,H5)</f>
         <v>-1.7702356724507928E-2</v>
       </c>
       <c r="J22" t="e">
-        <f>SUM(J11,J9,J7,J5)/COUNT(J11,J9,J7,J5)</f>
+        <f>SUM(J12,J9,J7,J5)/COUNT(J12,J9,J7,J5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
-        <f>AVERAGE(L11,L9,L7,L5)</f>
+        <f>AVERAGE(L12,L9,L7,L5)</f>
         <v>1.0975000000000001</v>
       </c>
       <c r="V22" s="6"/>
@@ -1485,7 +1459,7 @@
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D23">
         <f>SUM(D21:D22)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H23" s="6"/>
       <c r="K23" s="6"/>
@@ -1587,19 +1561,19 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" t="e">
-        <f>SUM(J11)/COUNT(J11)</f>
+        <f>SUM(J12)/COUNT(J12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="6" t="e">
-        <f>AVERAGE(K11)</f>
+        <f>AVERAGE(K12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="2">
-        <f>AVERAGE(L11)</f>
+        <f>AVERAGE(L12)</f>
         <v>0.91</v>
       </c>
       <c r="M29" s="3" t="e">
-        <f>AVERAGE(M11)</f>
+        <f>AVERAGE(M12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1615,13 +1589,14 @@
     <hyperlink ref="O7" r:id="rId5" xr:uid="{C150F644-22BC-4D02-802D-BED0E57B013A}"/>
     <hyperlink ref="O8" r:id="rId6" xr:uid="{99178A6F-2964-4DD4-80DE-C47CB66DDED3}"/>
     <hyperlink ref="O9" r:id="rId7" xr:uid="{1954C073-6EE4-438F-929C-C507A342B480}"/>
-    <hyperlink ref="O11" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
+    <hyperlink ref="O12" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
     <hyperlink ref="O10" r:id="rId9" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
-    <hyperlink ref="O12" r:id="rId10" xr:uid="{A047975B-CA68-4AA6-A365-A332455D0250}"/>
-    <hyperlink ref="O15" r:id="rId11" xr:uid="{E1AFF3FB-1C65-4169-8AC3-97DCAA64B9AF}"/>
+    <hyperlink ref="O13" r:id="rId10" xr:uid="{A047975B-CA68-4AA6-A365-A332455D0250}"/>
+    <hyperlink ref="O14" r:id="rId11" xr:uid="{E1AFF3FB-1C65-4169-8AC3-97DCAA64B9AF}"/>
+    <hyperlink ref="O16" r:id="rId12" xr:uid="{05E535AF-A000-4512-A566-52195A140416}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B9DC7B-6A90-4D06-BDE8-CAC0FCC34F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106159E4-7C3E-4EB4-9544-A8A4633E5FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1005" windowWidth="22200" windowHeight="14310" xr2:uid="{975520F9-B6E9-48FA-9812-89BEC17E316B}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -221,10 +221,28 @@
     <t>The China data for their main drug in the pipeline was very strong but the problem is the FDA has historically almost never approved a drug based on China data and it may not be reliable so further studies in the USA are needed and are being conducted the market is fairly priced in for a decent chance of success but the recent USA interim data isn't very bullish and at this price I wouldn't recommend a position in either direction it is just hard to tell what the data could show. Also, with Keytruda's patent expiry in 2028 this drugs pricing if not significantly better in PFS and OS will be severely limited. I wouldn't short this stock but I see long being pretty risky and would rather avoid this stock.</t>
   </si>
   <si>
-    <t>BUY</t>
-  </si>
-  <si>
     <t>New Phase III data from Sep 7th with America data (not just china) was good and the stock is trading at ~30% lower than before</t>
+  </si>
+  <si>
+    <t>Undervalued breakthrough treatment for huntingtons FDA almost guarenteed has to approve this really good data could easily 4x</t>
+  </si>
+  <si>
+    <t>QURE</t>
+  </si>
+  <si>
+    <t>update: 9/26</t>
+  </si>
+  <si>
+    <t>CRNX</t>
+  </si>
+  <si>
+    <t>Really good data for a first oral treatment for a orphan disease and decent pipeline mostly priced in approval but likely to go up 20-30% in the short term</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>Lots of market exposure to movement but long term this is likely to drop and I would add here to the short at this very high price as long as your position isn't too large</t>
   </si>
 </sst>
 </file>
@@ -279,7 +297,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -296,6 +313,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A6B13-8CAC-436C-8123-F4D415EF8DC4}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -670,7 +688,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="V1" t="s">
         <v>23</v>
@@ -695,7 +715,7 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
@@ -758,7 +778,7 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f>H3-(R3+L3*((Q4/Q3)-1)-R3)</f>
         <v>0.39845362807704293</v>
       </c>
@@ -772,20 +792,20 @@
       <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="2">
         <v>634.41999999999996</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="V3" s="6">
-        <f>(F3*K3)/MIN(F3:F12)</f>
+      <c r="V3" s="5">
+        <f>(F3*K3)/MIN(F3:F13)</f>
         <v>0.39845362807704293</v>
       </c>
     </row>
@@ -806,13 +826,13 @@
       <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="K4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
       <c r="Q4" s="2">
         <v>634.46</v>
       </c>
-      <c r="V4" s="6"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -830,12 +850,12 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>18.2</v>
+      <c r="G5" s="2">
+        <v>18</v>
       </c>
       <c r="H5" s="3">
         <f>G5/E5-1</f>
-        <v>-0.16552040348464003</v>
+        <v>-0.17469050894085281</v>
       </c>
       <c r="I5" t="s">
         <v>47</v>
@@ -843,7 +863,7 @@
       <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="5"/>
       <c r="L5">
         <v>0.46</v>
       </c>
@@ -851,18 +871,18 @@
       <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="2">
         <v>643.29999999999995</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="V5" s="6">
-        <f>(F5*K5)/MIN(F5:F12)</f>
+      <c r="V5" s="5">
+        <f>(F5*K5)/MIN(F5:F13)</f>
         <v>0</v>
       </c>
     </row>
@@ -895,7 +915,7 @@
       <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="2">
         <v>0.8</v>
       </c>
@@ -903,18 +923,18 @@
       <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="10"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="2">
         <v>643.29999999999995</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="V6" s="6">
-        <f>(F6*K6)/MIN(F6:F15)</f>
+      <c r="V6" s="5">
+        <f>(F6*K6)/MIN(F6:F17)</f>
         <v>0</v>
       </c>
     </row>
@@ -934,12 +954,12 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>70.19</v>
+      <c r="G7" s="2">
+        <v>67</v>
       </c>
       <c r="H7" s="3">
         <f>G7/E7-1</f>
-        <v>1.3866820742452601E-2</v>
+        <v>-3.2211469016322436E-2</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
@@ -947,7 +967,7 @@
       <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
       <c r="L7">
         <v>1.44</v>
       </c>
@@ -955,18 +975,18 @@
       <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="10"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="2">
         <v>643.29999999999995</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="V7" s="6">
-        <f>(F7*K7)/MIN(F7:F25)</f>
+      <c r="V7" s="5">
+        <f>(F7*K7)/MIN(F7:F29)</f>
         <v>0</v>
       </c>
     </row>
@@ -987,255 +1007,239 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>5.38</v>
+        <v>0.84</v>
       </c>
       <c r="H8" s="3">
-        <f>G8/E8-1</f>
-        <v>1.5094339622641506E-2</v>
+        <f>(G8/E8-1)*-1</f>
+        <v>0.84150943396226419</v>
       </c>
       <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="6"/>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <f>H8-(R8+L8*((Q9/Q8)-1)-R8)</f>
+        <v>0.81702268749939444</v>
+      </c>
       <c r="L8">
         <v>0.95</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <f>H8/(DATEDIF(C8,C9,"d")/365)</f>
+        <v>9.5984669811320753</v>
+      </c>
       <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="10"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="2">
         <v>642.47</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="V8" s="6">
-        <f>(F8*K8)/MIN(F8:F19)</f>
-        <v>0</v>
+      <c r="V8" s="5">
+        <f>(F8*K8)/MIN(F8:F23)</f>
+        <v>1.3617044791656572</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="1">
-        <v>45894</v>
+        <v>45926</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2">
-        <v>77</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>80.53</v>
-      </c>
-      <c r="H9" s="3">
-        <f>G9/E9-1</f>
-        <v>4.5844155844155798E-2</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9">
-        <v>1.58</v>
-      </c>
+        <v>0.84</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="K9" s="5"/>
       <c r="M9" s="3"/>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="10"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="2">
-        <v>642.47</v>
-      </c>
-      <c r="R9" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="V9" s="6">
-        <f>(F9*K9)/MIN(F9:F20)</f>
-        <v>0</v>
-      </c>
+        <v>659.03</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>45894</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="6"/>
+        <v>82.08</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10/E10-1</f>
+        <v>6.5974025974026018E-2</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10">
-        <v>0.86</v>
+        <v>1.58</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="10"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="2">
         <v>642.47</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f>(F10*K10)/MIN(F10:F24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
       <c r="C11" s="1">
+        <v>45894</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11">
+        <v>0.86</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="2">
+        <v>642.47</v>
+      </c>
+      <c r="R11" s="5">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V11" s="5">
+        <f>(F11*K11)/MIN(F11:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
         <v>45911</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="3"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="2">
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="2">
         <v>657.63</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45894</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2">
-        <v>46</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>47.61</v>
-      </c>
-      <c r="H12" s="3">
-        <f>G12/E12-1</f>
-        <v>3.499999999999992E-2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12">
-        <v>0.91</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="2">
-        <v>642.47</v>
-      </c>
-      <c r="R12" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="V12" s="6">
-        <f>(F12*K12)/MIN(F12:F27)</f>
-        <v>0</v>
-      </c>
+      <c r="R12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>45897</v>
+        <v>45894</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3">
+        <f>G13/E13-1</f>
+        <v>4.3478260869565188E-2</v>
+      </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
       <c r="L13">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="10"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="2">
-        <v>647</v>
-      </c>
-      <c r="R13" s="6">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="V13" s="6"/>
+        <v>642.47</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="V13" s="5">
+        <f>(F13*K13)/MIN(F13:F31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>45897</v>
@@ -1244,341 +1248,519 @@
         <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>14.27</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="2">
+        <v>111.19</v>
+      </c>
+      <c r="H14" s="3">
+        <f>(G14/E14-1)*-1</f>
+        <v>-0.52315068493150685</v>
+      </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="5"/>
       <c r="L14">
-        <v>2.52</v>
+        <v>0.62</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="10"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="2">
         <v>647</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" s="1">
-        <v>45897</v>
+        <v>45926</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2">
-        <v>338.84</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
+        <v>111.19</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
         <v>45</v>
       </c>
-      <c r="L15">
-        <v>3.78</v>
-      </c>
-      <c r="N15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>647</v>
-      </c>
-      <c r="R15" s="6">
-        <v>4.2299999999999997E-2</v>
-      </c>
+      <c r="K15" s="5"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2">
-        <v>18.600000000000001</v>
+        <v>14.27</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15.74</v>
+      </c>
+      <c r="H16" s="3">
+        <f>(G16/E16-1)*-1</f>
+        <v>-0.10301331464611074</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
       </c>
+      <c r="K16" s="5"/>
       <c r="L16">
+        <v>2.52</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="2">
+        <v>647</v>
+      </c>
+      <c r="R16" s="5">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45897</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2">
+        <v>338.84</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>304.93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>3.78</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>647</v>
+      </c>
+      <c r="R17" s="5">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45911</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G18">
+        <v>20.64</v>
+      </c>
+      <c r="H18" s="3">
+        <f>G18/E18-1</f>
+        <v>0.10967741935483866</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18">
         <v>0.87</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N18" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q18" s="2">
         <v>657.63</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R18" s="5">
         <v>4.0340000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="3">
-        <f>SUM(J3:J15)/COUNT(J3:J15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I18" s="8"/>
-      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45922</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>33.72</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45.52</v>
+      </c>
+      <c r="H19" s="3">
+        <f>G19/E19-1</f>
+        <v>0.34994068801897993</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>662.2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45926</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="H20" s="3">
+        <f>G20/E20-1</f>
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>1.45</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="Q20" s="2">
+        <v>659.03</v>
+      </c>
+      <c r="R20" s="5">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3">
+        <f>SUM(J3:J17)/COUNT(J3:J17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I22" s="7"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2">
-        <f>AVERAGE(F3:F15)</f>
+      <c r="F23" s="2">
+        <f>AVERAGE(F3:F17)</f>
         <v>3.9</v>
       </c>
-      <c r="H19" s="3">
-        <f>AVERAGE(H3:H12)</f>
-        <v>5.3288103411629338E-2</v>
-      </c>
-      <c r="K19" s="6">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.39845362807704293</v>
-      </c>
-      <c r="L19" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>1.0675000000000001</v>
-      </c>
-      <c r="M19" s="3">
-        <f>AVERAGE(M3:M12)</f>
-        <v>24.245169082125599</v>
-      </c>
-      <c r="V19" s="6">
-        <f>AVERAGE(V3:V12)</f>
-        <v>4.9806703509630366E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="V20" s="6"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <f>COUNTIF(D3:D15,"SHORT")</f>
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <f>D21/$D$23</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F21" s="2">
-        <f>AVERAGE(F13:F15,F8,F6,F3)</f>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="H21" s="3">
-        <f>AVERAGE(H13:H15,H8,H6,H3)</f>
-        <v>0.14794205025981236</v>
-      </c>
-      <c r="J21" s="3">
-        <f>SUM(J13:J15,J8,J6,J3)/COUNT(J13:J15,J8,J6,J3)</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2">
-        <f>AVERAGE(L13:L15,L8,L6,L3)</f>
-        <v>1.7016666666666669</v>
-      </c>
-      <c r="V21" s="6"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <f>COUNTIF(D3:D15,"LONG")</f>
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <f>D22/$D$23</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="F22" s="2">
-        <f>AVERAGE(F12,F9,F7,F5)</f>
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <f>AVERAGE(H12,H9,H7,H5)</f>
-        <v>-1.7702356724507928E-2</v>
-      </c>
-      <c r="J22" t="e">
-        <f>SUM(J12,J9,J7,J5)/COUNT(J12,J9,J7,J5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <f>AVERAGE(L12,L9,L7,L5)</f>
-        <v>1.0975000000000001</v>
-      </c>
-      <c r="V22" s="6"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <f>SUM(D21:D22)</f>
-        <v>9</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="H23" s="3">
+        <f>AVERAGE(H3:H20)</f>
+        <v>8.3853805150139737E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <f>AVERAGE(K3:K20)</f>
+        <v>0.60773815778821871</v>
+      </c>
+      <c r="L23" s="2">
+        <f>AVERAGE(L3:L20)</f>
+        <v>1.2914285714285714</v>
+      </c>
+      <c r="M23" s="3">
+        <f>AVERAGE(M3:M13)</f>
+        <v>16.921818031628838</v>
+      </c>
+      <c r="V23" s="5">
+        <f>AVERAGE(V3:V13)</f>
+        <v>0.22001976340533752</v>
+      </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45862</v>
-      </c>
-      <c r="E24" s="2">
-        <v>634.41999999999996</v>
-      </c>
-      <c r="G24" s="2">
-        <v>645.04999999999995</v>
-      </c>
-      <c r="H24" s="3">
-        <f>G24/E24-1</f>
-        <v>1.6755461681535966E-2</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="K24" s="6">
-        <f>H24-($H$25+L24*($H$24-$H$25))</f>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
+      <c r="H24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="H25" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="K25" s="6">
-        <f>H25-($H$25+L25*($H$24-$H$25))</f>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIF(D3:D17,"SHORT")</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <f>D25/$D$27</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F25" s="2">
+        <f>AVERAGE(F14:F17,F8,F6,F3)</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="H25" s="3">
+        <f>AVERAGE(H14:H17,H8,H6,H3)</f>
+        <v>0.12881544910828843</v>
+      </c>
+      <c r="J25" s="3">
+        <f>SUM(J14:J17,J8,J6,J3)/COUNT(J14:J17,J8,J6,J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2">
+        <f>AVERAGE(L14:L17,L8,L6,L3)</f>
+        <v>1.7016666666666669</v>
+      </c>
+      <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="J26" t="s">
-        <v>22</v>
-      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIF(D3:D17,"LONG")</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <f>D26/$D$27</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F26" s="2">
+        <f>AVERAGE(F13,F10,F7,F5)</f>
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <f>AVERAGE(H13,H10,H7,H5)</f>
+        <v>-2.4362422778396009E-2</v>
+      </c>
+      <c r="J26" t="e">
+        <f>SUM(J13,J10,J7,J5)/COUNT(J13,J10,J7,J5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <f>AVERAGE(L13,L10,L7,L5)</f>
+        <v>1.0975000000000001</v>
+      </c>
+      <c r="V26" s="5"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="3">
-        <f>SUM(J3,J5,J6,J8,J9,J10)/COUNT(J3,J5,J6,J8,J9,J10)</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="6">
-        <f>AVERAGE(K3,K5,K6,K8,K9,K10)</f>
-        <v>0.39845362807704293</v>
-      </c>
-      <c r="L27" s="2">
-        <f>AVERAGE(L3,L5,L6,L8,L9,L10)</f>
-        <v>1.0316666666666667</v>
-      </c>
-      <c r="M27" s="3">
-        <f>AVERAGE(M3,M5,M6,M8,M9,M10)</f>
-        <v>24.245169082125599</v>
-      </c>
+      <c r="D27">
+        <f>SUM(D25:D26)</f>
+        <v>9</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45862</v>
+      </c>
+      <c r="E28" s="2">
+        <v>634.41999999999996</v>
+      </c>
+      <c r="G28" s="2">
+        <v>645.04999999999995</v>
+      </c>
+      <c r="H28" s="3">
+        <f>G28/E28-1</f>
+        <v>1.6755461681535966E-2</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="K28" s="5">
+        <f>H28-($H$29+L28*($H$28-$H$29))</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="H29" s="5">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="K29" s="5">
+        <f>H29-($H$29+L29*($H$28-$H$29))</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="3">
+        <f>SUM(J3,J5,J6,J8,J10,J11)/COUNT(J3,J5,J6,J8,J10,J11)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <f>AVERAGE(K3,K5,K6,K8,K10,K11)</f>
+        <v>0.60773815778821871</v>
+      </c>
+      <c r="L31" s="2">
+        <f>AVERAGE(L3,L5,L6,L8,L10,L11)</f>
+        <v>1.0316666666666667</v>
+      </c>
+      <c r="M31" s="3">
+        <f>AVERAGE(M3,M5,M6,M8,M10,M11)</f>
+        <v>16.921818031628838</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="J28" t="e">
+      <c r="J32" t="e">
         <f>SUM(J7)/COUNT(J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="6" t="e">
+      <c r="K32" s="5" t="e">
         <f>AVERAGE(K7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L32" s="2">
         <f>AVERAGE(L7)</f>
         <v>1.44</v>
       </c>
-      <c r="M28" s="3" t="e">
+      <c r="M32" s="3" t="e">
         <f>AVERAGE(M7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" t="e">
-        <f>SUM(J12)/COUNT(J12)</f>
+      <c r="I33" s="3"/>
+      <c r="J33" t="e">
+        <f>SUM(J13)/COUNT(J13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="6" t="e">
-        <f>AVERAGE(K12)</f>
+      <c r="K33" s="5" t="e">
+        <f>AVERAGE(K13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="2">
-        <f>AVERAGE(L12)</f>
+      <c r="L33" s="2">
+        <f>AVERAGE(L13)</f>
         <v>0.91</v>
       </c>
-      <c r="M29" s="3" t="e">
-        <f>AVERAGE(M12)</f>
+      <c r="M33" s="3" t="e">
+        <f>AVERAGE(M13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="K31" s="6"/>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K35" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1588,15 +1770,16 @@
     <hyperlink ref="O6" r:id="rId4" xr:uid="{3676D465-641E-4B4D-8677-65A91A2F5628}"/>
     <hyperlink ref="O7" r:id="rId5" xr:uid="{C150F644-22BC-4D02-802D-BED0E57B013A}"/>
     <hyperlink ref="O8" r:id="rId6" xr:uid="{99178A6F-2964-4DD4-80DE-C47CB66DDED3}"/>
-    <hyperlink ref="O9" r:id="rId7" xr:uid="{1954C073-6EE4-438F-929C-C507A342B480}"/>
-    <hyperlink ref="O12" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
-    <hyperlink ref="O10" r:id="rId9" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
-    <hyperlink ref="O13" r:id="rId10" xr:uid="{A047975B-CA68-4AA6-A365-A332455D0250}"/>
-    <hyperlink ref="O14" r:id="rId11" xr:uid="{E1AFF3FB-1C65-4169-8AC3-97DCAA64B9AF}"/>
-    <hyperlink ref="O16" r:id="rId12" xr:uid="{05E535AF-A000-4512-A566-52195A140416}"/>
+    <hyperlink ref="O10" r:id="rId7" xr:uid="{1954C073-6EE4-438F-929C-C507A342B480}"/>
+    <hyperlink ref="O13" r:id="rId8" xr:uid="{6CCCA1FE-ECD2-4689-860F-9ADE3B056949}"/>
+    <hyperlink ref="O11" r:id="rId9" xr:uid="{D35E01C5-0A43-4ACD-BD0C-88FFA33A47B9}"/>
+    <hyperlink ref="O14" r:id="rId10" xr:uid="{A047975B-CA68-4AA6-A365-A332455D0250}"/>
+    <hyperlink ref="O16" r:id="rId11" xr:uid="{E1AFF3FB-1C65-4169-8AC3-97DCAA64B9AF}"/>
+    <hyperlink ref="O18" r:id="rId12" xr:uid="{05E535AF-A000-4512-A566-52195A140416}"/>
+    <hyperlink ref="O19" r:id="rId13" xr:uid="{73FE13B3-6F8A-49A8-897D-09B2CB7F1A5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>